--- a/train_label(현황파악).xlsx
+++ b/train_label(현황파악).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\대스타\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18122C3-47CC-4766-8161-7D61896D0E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0656C34B-C718-457D-8AEC-A5F5B5A63076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1416" yWindow="636" windowWidth="21108" windowHeight="11076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4488" uniqueCount="2406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4487" uniqueCount="2405">
   <si>
     <t>file_name</t>
   </si>
@@ -7233,10 +7233,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>HSV</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>train_0000.jpg</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -7249,19 +7245,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>밝기 50</t>
+    <t>밝기(30, 40, 50), 어둡게</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>밝기 100</t>
+    <t>밝기(35, 45), 어둡게</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>어둡게 50</t>
+    <t>대비</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>어둡게 100</t>
+    <t>최종</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -7430,7 +7426,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7613,6 +7609,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7876,7 +7884,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7884,6 +7892,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8243,8 +8257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2083"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8258,7 +8272,7 @@
     <col min="7" max="7" width="14.3984375" customWidth="1"/>
     <col min="10" max="10" width="19.69921875" customWidth="1"/>
     <col min="11" max="11" width="11.09765625" customWidth="1"/>
-    <col min="17" max="17" width="11.69921875" customWidth="1"/>
+    <col min="12" max="13" width="21.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
@@ -8278,30 +8292,27 @@
         <v>2397</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>2400</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2398</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>2401</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>2402</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2403</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>2404</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>2405</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -8312,20 +8323,28 @@
       <c r="H2">
         <v>2</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>2</v>
       </c>
-      <c r="K2">
-        <f>J2^3</f>
+      <c r="K2" s="3">
+        <f>J2*4</f>
         <v>8</v>
       </c>
-      <c r="L2">
-        <f>K2*2</f>
-        <v>16</v>
-      </c>
-      <c r="M2">
+      <c r="L2" s="3">
+        <f>K2*6+K2</f>
+        <v>56</v>
+      </c>
+      <c r="M2" s="4">
+        <f>K2*4+K2</f>
+        <v>40</v>
+      </c>
+      <c r="N2" s="3">
         <f>L2*2</f>
-        <v>32</v>
+        <v>112</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="Q2" s="2">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
@@ -8341,20 +8360,28 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>3</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K22" si="0">J3^3</f>
-        <v>27</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:M22" si="1">K3*2</f>
-        <v>54</v>
-      </c>
-      <c r="M3">
-        <f t="shared" si="1"/>
-        <v>108</v>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K22" si="0">J3*4</f>
+        <v>12</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L22" si="1">K3*6+K3</f>
+        <v>84</v>
+      </c>
+      <c r="M3" s="4">
+        <f t="shared" ref="M3:M22" si="2">K3*4+K3</f>
+        <v>60</v>
+      </c>
+      <c r="N3" s="3">
+        <f>L3*2</f>
+        <v>168</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="Q3" s="2">
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
@@ -8370,20 +8397,25 @@
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>8</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <f t="shared" si="0"/>
-        <v>512</v>
-      </c>
-      <c r="L4">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2">
         <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="1"/>
-        <v>2048</v>
+        <v>224</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="Q4" s="2">
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -8402,20 +8434,25 @@
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>5</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="L5">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3">
         <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="1"/>
-        <v>500</v>
+        <v>140</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="Q5" s="2">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -8434,20 +8471,25 @@
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>6</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <f t="shared" si="0"/>
-        <v>216</v>
-      </c>
-      <c r="L6">
+        <v>24</v>
+      </c>
+      <c r="L6" s="2">
         <f t="shared" si="1"/>
-        <v>432</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="1"/>
-        <v>864</v>
+        <v>168</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="Q6" s="2">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
@@ -8463,20 +8505,31 @@
       <c r="H7">
         <v>2</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>10</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="L7">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2">
         <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>280</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="N7" s="3">
+        <f>K7*2</f>
+        <v>80</v>
+      </c>
+      <c r="O7" s="3">
+        <f>N7*2</f>
+        <v>160</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
@@ -8495,20 +8548,31 @@
       <c r="H8">
         <v>2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>13</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <f t="shared" si="0"/>
-        <v>2197</v>
-      </c>
-      <c r="L8">
+        <v>52</v>
+      </c>
+      <c r="L8" s="2">
         <f t="shared" si="1"/>
-        <v>4394</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="1"/>
-        <v>8788</v>
+        <v>364</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" ref="N8:N22" si="3">K8*2</f>
+        <v>104</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" ref="O8:O22" si="4">N8*2</f>
+        <v>208</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
@@ -8528,20 +8592,31 @@
       <c r="H9">
         <v>2</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>19</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <f t="shared" si="0"/>
-        <v>6859</v>
-      </c>
-      <c r="L9">
+        <v>76</v>
+      </c>
+      <c r="L9" s="2">
         <f t="shared" si="1"/>
-        <v>13718</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="1"/>
-        <v>27436</v>
+        <v>532</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="2"/>
+        <v>380</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="3"/>
+        <v>152</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="4"/>
+        <v>304</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
@@ -8560,20 +8635,31 @@
       <c r="H10">
         <v>2</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>17</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <f t="shared" si="0"/>
-        <v>4913</v>
-      </c>
-      <c r="L10">
+        <v>68</v>
+      </c>
+      <c r="L10" s="2">
         <f t="shared" si="1"/>
-        <v>9826</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="1"/>
-        <v>19652</v>
+        <v>476</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="4"/>
+        <v>272</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
@@ -8589,20 +8675,31 @@
       <c r="H11">
         <v>2</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>9</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <f t="shared" si="0"/>
-        <v>729</v>
-      </c>
-      <c r="L11">
+        <v>36</v>
+      </c>
+      <c r="L11" s="2">
         <f t="shared" si="1"/>
-        <v>1458</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="1"/>
-        <v>2916</v>
+        <v>252</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
@@ -8618,20 +8715,31 @@
       <c r="H12">
         <v>2</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>11</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <f t="shared" si="0"/>
-        <v>1331</v>
-      </c>
-      <c r="L12">
+        <v>44</v>
+      </c>
+      <c r="L12" s="2">
         <f t="shared" si="1"/>
-        <v>2662</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="1"/>
-        <v>5324</v>
+        <v>308</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
@@ -8647,20 +8755,31 @@
       <c r="H13">
         <v>2</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <v>15</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <f t="shared" si="0"/>
-        <v>3375</v>
-      </c>
-      <c r="L13">
+        <v>60</v>
+      </c>
+      <c r="L13" s="2">
         <f t="shared" si="1"/>
-        <v>6750</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="1"/>
-        <v>13500</v>
+        <v>420</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
@@ -8676,20 +8795,31 @@
       <c r="H14">
         <v>2</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <v>4</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="1"/>
-        <v>256</v>
+      <c r="Q14" s="2">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
@@ -8705,20 +8835,31 @@
       <c r="H15">
         <v>2</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <v>16</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <f t="shared" si="0"/>
-        <v>4096</v>
-      </c>
-      <c r="L15">
+        <v>64</v>
+      </c>
+      <c r="L15" s="2">
         <f t="shared" si="1"/>
-        <v>8192</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="1"/>
-        <v>16384</v>
+        <v>448</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
@@ -8734,23 +8875,34 @@
       <c r="H16">
         <v>2</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <v>7</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <f t="shared" si="0"/>
-        <v>343</v>
-      </c>
-      <c r="L16">
+        <v>28</v>
+      </c>
+      <c r="L16" s="2">
         <f t="shared" si="1"/>
-        <v>686</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="1"/>
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+        <v>196</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -8763,23 +8915,34 @@
       <c r="H17">
         <v>2</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="2">
         <v>21</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <f t="shared" si="0"/>
-        <v>9261</v>
-      </c>
-      <c r="L17">
+        <v>84</v>
+      </c>
+      <c r="L17" s="2">
         <f t="shared" si="1"/>
-        <v>18522</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="1"/>
-        <v>37044</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+        <v>588</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="3"/>
+        <v>168</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="4"/>
+        <v>336</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -8792,23 +8955,34 @@
       <c r="H18">
         <v>2</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="2">
         <v>18</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <f t="shared" si="0"/>
-        <v>5832</v>
-      </c>
-      <c r="L18">
+        <v>72</v>
+      </c>
+      <c r="L18" s="2">
         <f t="shared" si="1"/>
-        <v>11664</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="1"/>
-        <v>23328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+        <v>504</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="4"/>
+        <v>288</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -8821,23 +8995,34 @@
       <c r="H19">
         <v>2</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="2">
         <v>20</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-      <c r="L19">
+        <v>80</v>
+      </c>
+      <c r="L19" s="2">
         <f t="shared" si="1"/>
-        <v>16000</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="1"/>
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+        <v>560</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -8850,23 +9035,34 @@
       <c r="H20">
         <v>2</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="2">
         <v>12</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <f t="shared" si="0"/>
-        <v>1728</v>
-      </c>
-      <c r="L20">
+        <v>48</v>
+      </c>
+      <c r="L20" s="2">
         <f t="shared" si="1"/>
-        <v>3456</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="1"/>
-        <v>6912</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+        <v>336</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="4"/>
+        <v>192</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -8879,23 +9075,34 @@
       <c r="H21">
         <v>2</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="2">
         <v>14</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <f t="shared" si="0"/>
-        <v>2744</v>
-      </c>
-      <c r="L21">
+        <v>56</v>
+      </c>
+      <c r="L21" s="2">
         <f t="shared" si="1"/>
-        <v>5488</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="1"/>
-        <v>10976</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+        <v>392</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="4"/>
+        <v>224</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -8908,23 +9115,34 @@
       <c r="H22">
         <v>2</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="2">
         <v>32</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <f t="shared" si="0"/>
-        <v>32768</v>
-      </c>
-      <c r="L22">
+        <v>128</v>
+      </c>
+      <c r="L22" s="2">
         <f t="shared" si="1"/>
-        <v>65536</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="1"/>
-        <v>131072</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+        <v>896</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="2"/>
+        <v>640</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="4"/>
+        <v>512</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -8938,7 +9156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -8952,7 +9170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -8966,7 +9184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -8980,7 +9198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -8994,7 +9212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -9008,7 +9226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -9022,7 +9240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -9036,7 +9254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -9050,7 +9268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>63</v>
       </c>
